--- a/團膳自動化_整合/add_to_excel_test.xlsx
+++ b/團膳自動化_整合/add_to_excel_test.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,12 +484,12 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>公克</t>
+          <t>公斤</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>毫升</t>
+          <t>公斤</t>
         </is>
       </c>
     </row>
@@ -561,6 +561,7 @@
         </is>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="expression" priority="1" dxfId="0">
@@ -577,7 +578,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +611,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -653,7 +654,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1000">
     <cfRule type="expression" priority="1" dxfId="0">

--- a/團膳自動化_整合/add_to_excel_test.xlsx
+++ b/團膳自動化_整合/add_to_excel_test.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>公斤</t>
+          <t>公克</t>
         </is>
       </c>
     </row>
